--- a/Аналитик — тестовое задание.xlsx
+++ b/Аналитик — тестовое задание.xlsx
@@ -18,13 +18,13 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>event_id</t>
   </si>
@@ -214,9 +214,6 @@
   <si>
     <t>Сумма по полю is_attend</t>
   </si>
-  <si>
-    <t>Сумма по полю customer_id</t>
-  </si>
 </sst>
 </file>
 
@@ -293,7 +290,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
@@ -304,7 +303,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
@@ -315,7 +316,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
       <right style="thin">
         <color rgb="FF999999"/>
       </right>
@@ -331,12 +334,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -351,11 +353,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -452,6 +451,37 @@
     <c:fmtId val="1"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -472,6 +502,9 @@
       <c:pivotFmt>
         <c:idx val="1"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -487,6 +520,9 @@
       <c:pivotFmt>
         <c:idx val="2"/>
         <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
           <a:ln w="28575" cap="rnd">
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -529,7 +565,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Сумма по полю is_attend</c:v>
+                  <c:v>Итог</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -826,315 +862,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-28F5-4FB0-B9C7-0CA184AA86BE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Лист1!$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Сумма по полю customer_id</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>Лист1!$A$4:$A$48</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="41"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>21.май</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>22.май</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>23.май</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>25.май</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>26.май</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>27.май</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>28.май</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>29.май</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>30.май</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>01.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>02.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>03.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>04.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>05.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>06.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>09.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>10.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>11.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>12.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>13.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>16.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>17.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
-                    <c:v>18.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="23">
-                    <c:v>19.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="24">
-                    <c:v>20.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="25">
-                    <c:v>23.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="26">
-                    <c:v>24.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="27">
-                    <c:v>25.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="28">
-                    <c:v>26.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="29">
-                    <c:v>27.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="30">
-                    <c:v>30.июн</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>01.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="32">
-                    <c:v>02.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="33">
-                    <c:v>03.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="34">
-                    <c:v>07.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="35">
-                    <c:v>08.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="36">
-                    <c:v>09.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="37">
-                    <c:v>10.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="38">
-                    <c:v>14.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="39">
-                    <c:v>15.июл</c:v>
-                  </c:pt>
-                  <c:pt idx="40">
-                    <c:v>16.июл</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>май</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>июн</c:v>
-                  </c:pt>
-                  <c:pt idx="31">
-                    <c:v>июл</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Лист1!$C$4:$C$48</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
-                <c:pt idx="0">
-                  <c:v>695</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>528</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>653</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>424</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>888</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1968</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1886</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3105</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>853</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>880</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3442</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1402</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3935</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>550</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5990</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1560</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>4267</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2027</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1546</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3444</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4127</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3470</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2617</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2952</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>4499</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2705</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4316</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2693</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3376</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2693</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>4046</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2106</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>4700</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>923</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-28F5-4FB0-B9C7-0CA184AA86BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5299,8 +5026,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:C48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" numFmtId="164" showAll="0">
@@ -5676,7 +5403,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5841,36 +5568,18 @@
       <x/>
     </i>
   </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <dataFields count="2">
+  <dataFields count="1">
     <dataField name="Сумма по полю is_attend" fld="3" baseField="0" baseItem="0"/>
-    <dataField name="Сумма по полю customer_id" fld="2" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="2">
+  <chartFormats count="1">
     <chartFormat chart="1" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="1" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
           </reference>
         </references>
       </pivotArea>
@@ -6173,7 +5882,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C48"/>
+  <dimension ref="A3:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -6186,498 +5895,366 @@
     <col min="3" max="3" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>8</v>
       </c>
-      <c r="C5" s="14">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="11">
         <v>4</v>
       </c>
-      <c r="C6" s="14">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="8" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="14">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="13">
-        <v>3</v>
-      </c>
-      <c r="C8" s="14">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="11">
         <v>4</v>
       </c>
-      <c r="C9" s="14">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="13">
-        <v>3</v>
-      </c>
-      <c r="C10" s="14">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="8" t="s">
+      <c r="B10" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="13">
-        <v>3</v>
-      </c>
-      <c r="C11" s="14">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="8" t="s">
+      <c r="B11" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="13">
-        <v>3</v>
-      </c>
-      <c r="C12" s="14">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+      <c r="B12" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="11">
         <v>4</v>
       </c>
-      <c r="C13" s="14">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="8" t="s">
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15" s="11">
         <v>4</v>
       </c>
-      <c r="C15" s="14">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="8" t="s">
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="13">
-        <v>5</v>
-      </c>
-      <c r="C16" s="14">
-        <v>888</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="8" t="s">
+      <c r="B16" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="11">
         <v>7</v>
       </c>
-      <c r="C17" s="14">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="8" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18" s="11">
         <v>8</v>
       </c>
-      <c r="C18" s="14">
-        <v>1886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="8" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19" s="11">
         <v>13</v>
       </c>
-      <c r="C19" s="14">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="8" t="s">
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20" s="11">
         <v>4</v>
       </c>
-      <c r="C20" s="14">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="8" t="s">
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>4</v>
       </c>
-      <c r="C21" s="14">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="8" t="s">
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22" s="11">
         <v>11</v>
       </c>
-      <c r="C22" s="14">
-        <v>3442</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="8" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23" s="11">
         <v>8</v>
       </c>
-      <c r="C23" s="14">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="8" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24" s="11">
         <v>11</v>
       </c>
-      <c r="C24" s="14">
-        <v>3935</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="8" t="s">
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="13">
-        <v>3</v>
-      </c>
-      <c r="C25" s="14">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="8" t="s">
+      <c r="B25" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B26" s="13">
-        <v>5</v>
-      </c>
-      <c r="C26" s="14">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="8" t="s">
+      <c r="B26" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="11">
         <v>14</v>
       </c>
-      <c r="C27" s="14">
-        <v>5990</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="8" t="s">
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="13">
-        <v>5</v>
-      </c>
-      <c r="C28" s="14">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+      <c r="B28" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29" s="11">
         <v>10</v>
       </c>
-      <c r="C29" s="14">
-        <v>4267</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="8" t="s">
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30" s="11">
         <v>2</v>
       </c>
-      <c r="C30" s="14">
-        <v>2027</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="8" t="s">
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31" s="11">
         <v>4</v>
       </c>
-      <c r="C31" s="14">
-        <v>1546</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="8" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32" s="11">
         <v>11</v>
       </c>
-      <c r="C32" s="14">
-        <v>3444</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33" s="11">
         <v>6</v>
       </c>
-      <c r="C33" s="14">
-        <v>4127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="8" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34" s="11">
         <v>10</v>
       </c>
-      <c r="C34" s="14">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="8" t="s">
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35" s="11">
         <v>4</v>
       </c>
-      <c r="C35" s="14">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="8" t="s">
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36" s="11">
         <v>6</v>
       </c>
-      <c r="C36" s="14">
-        <v>2952</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="9" t="s">
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="8" t="s">
+      <c r="B37" s="11"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38" s="11">
         <v>12</v>
       </c>
-      <c r="C38" s="14">
-        <v>4499</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="8" t="s">
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39" s="11">
         <v>7</v>
       </c>
-      <c r="C39" s="14">
-        <v>2705</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40" s="11">
         <v>10</v>
       </c>
-      <c r="C40" s="14">
-        <v>4316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="8" t="s">
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B41" s="13">
-        <v>5</v>
-      </c>
-      <c r="C41" s="14">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
+      <c r="B41" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42" s="11">
         <v>7</v>
       </c>
-      <c r="C42" s="14">
-        <v>3376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8" t="s">
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43" s="11">
         <v>6</v>
       </c>
-      <c r="C43" s="14">
-        <v>2693</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8" t="s">
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44" s="11">
         <v>8</v>
       </c>
-      <c r="C44" s="14">
-        <v>4046</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="8" t="s">
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45" s="11">
         <v>4</v>
       </c>
-      <c r="C45" s="14">
-        <v>2106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46" s="11">
         <v>12</v>
       </c>
-      <c r="C46" s="14">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47" s="11">
         <v>2</v>
       </c>
-      <c r="C47" s="14">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="7" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B48" s="15">
+      <c r="B48" s="12">
         <v>264</v>
-      </c>
-      <c r="C48" s="16">
-        <v>90178</v>
       </c>
     </row>
   </sheetData>
